--- a/RQ3/RQ3.xlsx
+++ b/RQ3/RQ3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keshab\Documents\transfer-students-research\RQ3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955EFCB6-D2B6-4981-8A00-C56665F02EFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7658C9B-8CB7-4F10-8371-4CDABC81E1DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{D0AF20AA-7900-4A8E-A0EC-0DA9DF85DDAD}"/>
+    <workbookView xWindow="6850" yWindow="1800" windowWidth="12220" windowHeight="9600" xr2:uid="{D0AF20AA-7900-4A8E-A0EC-0DA9DF85DDAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -522,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DBCF0EB-DE33-4FC9-AEB2-38C710769EF1}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -534,43 +534,43 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>23</v>
       </c>
     </row>

--- a/RQ3/RQ3.xlsx
+++ b/RQ3/RQ3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keshab\Documents\transfer-students-research\RQ3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7658C9B-8CB7-4F10-8371-4CDABC81E1DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABB7EF8-9CA0-41AB-8CF3-3BB97D72C9A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6850" yWindow="1800" windowWidth="12220" windowHeight="9600" xr2:uid="{D0AF20AA-7900-4A8E-A0EC-0DA9DF85DDAD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{D0AF20AA-7900-4A8E-A0EC-0DA9DF85DDAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="29">
   <si>
     <t>Week</t>
   </si>
@@ -110,7 +110,16 @@
     <t>Week 10</t>
   </si>
   <si>
-    <t>CS 1:'</t>
+    <t>'CS 1:'</t>
+  </si>
+  <si>
+    <t>Transfer Median</t>
+  </si>
+  <si>
+    <t>Native Median</t>
+  </si>
+  <si>
+    <t>RBC</t>
   </si>
 </sst>
 </file>
@@ -177,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -202,9 +211,6 @@
     </xf>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -520,1302 +526,1567 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DBCF0EB-DE33-4FC9-AEB2-38C710769EF1}">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection sqref="A1:Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" ht="16" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="K3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="Q3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C4" s="3">
         <v>2.8571430000000002</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D4" s="3">
         <v>3.0994760000000001</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E4" s="3">
         <v>3.8820269999999999</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F4" s="3">
         <v>2.837793</v>
       </c>
-      <c r="G3" s="3">
-        <v>20</v>
-      </c>
-      <c r="H3" s="3">
-        <v>20</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="3">
+      <c r="G4" s="3">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>20</v>
+      </c>
+      <c r="J4" s="3">
+        <v>20</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
         <v>56</v>
       </c>
-      <c r="L3" s="3">
+      <c r="N4" s="3">
         <v>382</v>
       </c>
-      <c r="M3" s="3">
-        <v>1.9151000000000001E-2</v>
-      </c>
-      <c r="N3" s="3">
+      <c r="O4" s="3">
+        <v>3.8355E-2</v>
+      </c>
+      <c r="P4" s="3">
         <v>8891.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="Q4" s="3">
+        <v>0.168708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C5" s="4">
         <v>2.5306120000000001</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D5" s="4">
         <v>3.5577890000000001</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E5" s="4">
         <v>3.2152120000000002</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F5" s="4">
         <v>3.334489</v>
       </c>
-      <c r="G4" s="4">
-        <v>20</v>
-      </c>
-      <c r="H4" s="4">
-        <v>20</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
+      <c r="G5" s="4">
+        <v>2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <v>20</v>
+      </c>
+      <c r="J5" s="4">
+        <v>20</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
         <v>49</v>
       </c>
-      <c r="L4" s="4">
+      <c r="N5" s="4">
         <v>398</v>
       </c>
-      <c r="M4" s="4">
-        <v>8.2100000000000001E-4</v>
-      </c>
-      <c r="N4" s="4">
+      <c r="O5" s="4">
+        <v>1.6440000000000001E-3</v>
+      </c>
+      <c r="P5" s="4">
         <v>7097</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="Q5" s="4">
+        <v>0.272177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C6" s="3">
         <v>2.56</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D6" s="3">
         <v>3.6851389999999999</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E6" s="3">
         <v>3.3755419999999998</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F6" s="3">
         <v>3.0540759999999998</v>
       </c>
-      <c r="G5" s="3">
-        <v>20</v>
-      </c>
-      <c r="H5" s="3">
-        <v>20</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3">
+        <v>3</v>
+      </c>
+      <c r="I6" s="3">
+        <v>20</v>
+      </c>
+      <c r="J6" s="3">
+        <v>20</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
         <v>50</v>
       </c>
-      <c r="L5" s="3">
+      <c r="N6" s="3">
         <v>397</v>
       </c>
-      <c r="M5" s="3">
-        <v>3.1000000000000001E-5</v>
-      </c>
-      <c r="N5" s="3">
+      <c r="O6" s="3">
+        <v>6.3E-5</v>
+      </c>
+      <c r="P6" s="3">
         <v>6518</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="Q6" s="3">
+        <v>0.343275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C7" s="4">
         <v>2.0666669999999998</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D7" s="4">
         <v>3.9973679999999998</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E7" s="4">
         <v>1.7888539999999999</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F7" s="4">
         <v>3.4492159999999998</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G7" s="4">
+        <v>2</v>
+      </c>
+      <c r="H7" s="4">
+        <v>3</v>
+      </c>
+      <c r="I7" s="4">
         <v>10</v>
       </c>
-      <c r="H6" s="4">
-        <v>20</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
+      <c r="J7" s="4">
+        <v>20</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
         <v>45</v>
       </c>
-      <c r="L6" s="4">
+      <c r="N7" s="4">
         <v>380</v>
       </c>
-      <c r="M6" s="4">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="N6" s="4">
+      <c r="O7" s="4">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="P7" s="4">
         <v>5051.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+      <c r="Q7" s="4">
+        <v>0.40918100000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C8" s="3">
         <v>2.5961539999999999</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D8" s="3">
         <v>4.0317460000000001</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E8" s="3">
         <v>2.2251650000000001</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F8" s="3">
         <v>3.4083760000000001</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G8" s="3">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3">
         <v>10</v>
       </c>
-      <c r="H7" s="3">
-        <v>20</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
+      <c r="J8" s="3">
+        <v>20</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>52</v>
       </c>
-      <c r="L7" s="3">
+      <c r="N8" s="3">
         <v>378</v>
       </c>
-      <c r="M7" s="3">
-        <v>2.99E-4</v>
-      </c>
-      <c r="N7" s="3">
+      <c r="O8" s="3">
+        <v>5.9900000000000003E-4</v>
+      </c>
+      <c r="P8" s="3">
         <v>6981.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+      <c r="Q8" s="3">
+        <v>0.289632</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C9" s="4">
         <v>3.2826089999999999</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D9" s="4">
         <v>4.4149479999999999</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E9" s="4">
         <v>4.0423479999999996</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F9" s="4">
         <v>3.7451750000000001</v>
       </c>
-      <c r="G8" s="4">
-        <v>20</v>
-      </c>
-      <c r="H8" s="4">
-        <v>20</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
+      <c r="G9" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="H9" s="4">
+        <v>3</v>
+      </c>
+      <c r="I9" s="4">
+        <v>20</v>
+      </c>
+      <c r="J9" s="4">
+        <v>20</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
         <v>46</v>
       </c>
-      <c r="L8" s="4">
+      <c r="N9" s="4">
         <v>388</v>
       </c>
-      <c r="M8" s="4">
-        <v>1.511E-3</v>
-      </c>
-      <c r="N8" s="4">
+      <c r="O9" s="4">
+        <v>3.0279999999999999E-3</v>
+      </c>
+      <c r="P9" s="4">
         <v>6563.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+      <c r="Q9" s="4">
+        <v>0.264511</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C10" s="3">
         <v>2.2777780000000001</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D10" s="3">
         <v>4.3778410000000001</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E10" s="3">
         <v>1.8915010000000001</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F10" s="3">
         <v>3.6805279999999998</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G10" s="3">
+        <v>2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>3</v>
+      </c>
+      <c r="I10" s="3">
         <v>10</v>
       </c>
-      <c r="H9" s="3">
-        <v>20</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="J10" s="3">
+        <v>20</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>36</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N10" s="3">
         <v>352</v>
       </c>
-      <c r="M9" s="3">
-        <v>2.1999999999999999E-5</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="O10" s="3">
+        <v>4.3999999999999999E-5</v>
+      </c>
+      <c r="P10" s="3">
         <v>3741</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+      <c r="Q10" s="3">
+        <v>0.40956399999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C11" s="4">
         <v>2.3636360000000001</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D11" s="4">
         <v>4.42</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E11" s="4">
         <v>1.9540169999999999</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F11" s="4">
         <v>3.7287210000000002</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G11" s="4">
+        <v>2</v>
+      </c>
+      <c r="H11" s="4">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4">
         <v>10</v>
       </c>
-      <c r="H10" s="4">
-        <v>20</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
+      <c r="J11" s="4">
+        <v>20</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
         <v>44</v>
       </c>
-      <c r="L10" s="4">
+      <c r="N11" s="4">
         <v>400</v>
       </c>
-      <c r="M10" s="4">
-        <v>1.2999999999999999E-5</v>
-      </c>
-      <c r="N10" s="4">
+      <c r="O11" s="4">
+        <v>2.5999999999999998E-5</v>
+      </c>
+      <c r="P11" s="4">
         <v>5433</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+      <c r="Q11" s="4">
+        <v>0.38261400000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1" t="s">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+    </row>
+    <row r="14" spans="1:17" ht="16" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="1" t="s">
+      <c r="K14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="O14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="P14" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>0</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="Q14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C15" s="3">
         <v>1.969697</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D15" s="3">
         <v>4.7450330000000003</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E15" s="3">
         <v>2.0075609999999999</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F15" s="3">
         <v>4.360563</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G15" s="3">
+        <v>2</v>
+      </c>
+      <c r="H15" s="3">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
-        <v>20</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="J15" s="3">
+        <v>20</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
         <v>33</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N15" s="3">
         <v>302</v>
       </c>
-      <c r="M14" s="7">
-        <v>2.7074749999999999E-6</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="O15" s="7">
+        <v>5.4395759999999997E-6</v>
+      </c>
+      <c r="P15" s="3">
         <v>2602.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+      <c r="Q15" s="3">
+        <v>0.47772399999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
         <v>1</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="4">
-        <v>2</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="C16" s="4">
+        <v>2</v>
+      </c>
+      <c r="D16" s="4">
         <v>5.0816330000000001</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E16" s="4">
         <v>1.460593</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F16" s="4">
         <v>4.1851520000000004</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G16" s="4">
+        <v>2</v>
+      </c>
+      <c r="H16" s="4">
+        <v>4</v>
+      </c>
+      <c r="I16" s="4">
         <v>5</v>
       </c>
-      <c r="H15" s="4">
-        <v>20</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0</v>
-      </c>
-      <c r="J15" s="4">
-        <v>0</v>
-      </c>
-      <c r="K15" s="4">
+      <c r="J16" s="4">
+        <v>20</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
         <v>31</v>
       </c>
-      <c r="L15" s="4">
+      <c r="N16" s="4">
         <v>294</v>
       </c>
-      <c r="M15" s="8">
-        <v>7.9688560000000001E-7</v>
-      </c>
-      <c r="N15" s="4">
+      <c r="O16" s="8">
+        <v>1.6018550000000001E-6</v>
+      </c>
+      <c r="P16" s="4">
         <v>2189.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>2</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="Q16" s="4">
+        <v>0.51953000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="3">
-        <v>2</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3">
         <v>5.1442949999999996</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E17" s="3">
         <v>1.38873</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F17" s="3">
         <v>4.1797959999999996</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G17" s="3">
+        <v>2</v>
+      </c>
+      <c r="H17" s="3">
+        <v>4</v>
+      </c>
+      <c r="I17" s="3">
         <v>5</v>
       </c>
-      <c r="H16" s="3">
-        <v>20</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0</v>
-      </c>
-      <c r="K16" s="3">
+      <c r="J17" s="3">
+        <v>20</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>29</v>
       </c>
-      <c r="L16" s="3">
+      <c r="N17" s="3">
         <v>298</v>
       </c>
-      <c r="M16" s="7">
-        <v>9.9586620000000007E-7</v>
-      </c>
-      <c r="N16" s="3">
+      <c r="O17" s="7">
+        <v>2.0019810000000002E-6</v>
+      </c>
+      <c r="P17" s="3">
         <v>2029</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>3</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="Q17" s="3">
+        <v>0.53043300000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>3</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C18" s="4">
         <v>2.12</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D18" s="4">
         <v>5.5791250000000003</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E18" s="4">
         <v>1.5362290000000001</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F18" s="4">
         <v>4.4434849999999999</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G18" s="4">
+        <v>2</v>
+      </c>
+      <c r="H18" s="4">
         <v>5</v>
       </c>
-      <c r="H17" s="4">
-        <v>20</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0</v>
-      </c>
-      <c r="J17" s="4">
-        <v>0</v>
-      </c>
-      <c r="K17" s="4">
+      <c r="I18" s="4">
+        <v>5</v>
+      </c>
+      <c r="J18" s="4">
+        <v>20</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
         <v>25</v>
       </c>
-      <c r="L17" s="4">
+      <c r="N18" s="4">
         <v>297</v>
       </c>
-      <c r="M17" s="8">
-        <v>1.6802879999999999E-6</v>
-      </c>
-      <c r="N17" s="4">
+      <c r="O18" s="8">
+        <v>3.3789820000000001E-6</v>
+      </c>
+      <c r="P18" s="4">
         <v>1651</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
+      <c r="Q18" s="4">
+        <v>0.55528599999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
         <v>4</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C19" s="3">
         <v>2.2916669999999999</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D19" s="3">
         <v>5.8585859999999998</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E19" s="3">
         <v>1.5174110000000001</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F19" s="3">
         <v>4.7248840000000003</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G19" s="3">
+        <v>2</v>
+      </c>
+      <c r="H19" s="3">
         <v>5</v>
       </c>
-      <c r="H18" s="3">
-        <v>20</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="I19" s="3">
+        <v>5</v>
+      </c>
+      <c r="J19" s="3">
+        <v>20</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
         <v>24</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N19" s="3">
         <v>297</v>
       </c>
-      <c r="M18" s="7">
-        <v>4.2915350000000002E-6</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="O19" s="7">
+        <v>8.6292039999999996E-6</v>
+      </c>
+      <c r="P19" s="3">
         <v>1631.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+      <c r="Q19" s="3">
+        <v>0.54222800000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
         <v>5</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C20" s="4">
         <v>2.1724139999999998</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D20" s="4">
         <v>6.023333</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E20" s="4">
         <v>1.5826960000000001</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F20" s="4">
         <v>4.7734059999999996</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G20" s="4">
+        <v>2</v>
+      </c>
+      <c r="H20" s="4">
+        <v>5</v>
+      </c>
+      <c r="I20" s="4">
         <v>6</v>
       </c>
-      <c r="H19" s="4">
-        <v>20</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
+      <c r="J20" s="4">
+        <v>20</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4">
         <v>29</v>
       </c>
-      <c r="L19" s="4">
+      <c r="N20" s="4">
         <v>300</v>
       </c>
-      <c r="M19" s="8">
-        <v>5.7654520000000002E-8</v>
-      </c>
-      <c r="N19" s="4">
+      <c r="O20" s="8">
+        <v>1.159613E-7</v>
+      </c>
+      <c r="P20" s="4">
         <v>1776.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
+      <c r="Q20" s="4">
+        <v>0.59160900000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
         <v>6</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C21" s="3">
         <v>2.3870969999999998</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D21" s="3">
         <v>5.8797470000000001</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E21" s="3">
         <v>1.686761</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F21" s="3">
         <v>4.7239449999999996</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G21" s="3">
+        <v>2</v>
+      </c>
+      <c r="H21" s="3">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3">
         <v>7</v>
       </c>
-      <c r="H20" s="3">
-        <v>20</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="J21" s="3">
+        <v>20</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>31</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N21" s="3">
         <v>316</v>
       </c>
-      <c r="M20" s="7">
-        <v>5.7086869999999997E-7</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="O21" s="7">
+        <v>1.1472030000000001E-6</v>
+      </c>
+      <c r="P21" s="3">
         <v>2322.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+      <c r="Q21" s="3">
+        <v>0.52582700000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
         <v>7</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C22" s="4">
         <v>3.25</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D22" s="4">
         <v>5.8970589999999996</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E22" s="4">
         <v>2.8103639999999999</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F22" s="4">
         <v>4.6955730000000004</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G22" s="4">
+        <v>2</v>
+      </c>
+      <c r="H22" s="4">
+        <v>5</v>
+      </c>
+      <c r="I22" s="4">
         <v>10</v>
       </c>
-      <c r="H21" s="4">
-        <v>20</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
+      <c r="J22" s="4">
+        <v>20</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
         <v>28</v>
       </c>
-      <c r="L21" s="4">
+      <c r="N22" s="4">
         <v>272</v>
       </c>
-      <c r="M21" s="8">
-        <v>3.175384E-4</v>
-      </c>
-      <c r="N21" s="4">
+      <c r="O22" s="8">
+        <v>6.3776749999999998E-4</v>
+      </c>
+      <c r="P22" s="4">
         <v>2324.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
+      <c r="Q22" s="4">
+        <v>0.389575</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A23" s="6"/>
-    </row>
-    <row r="24" spans="1:14" ht="16" x14ac:dyDescent="0.35">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="1" t="s">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A24" s="6"/>
+    </row>
+    <row r="25" spans="1:17" ht="16" x14ac:dyDescent="0.35">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="1" t="s">
+      <c r="D25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="1" t="s">
+      <c r="K25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="M25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="N25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="O25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="P25" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
-        <v>0</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="Q25" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>0</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C26" s="3">
         <v>2.6923080000000001</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D26" s="3">
         <v>2.5984250000000002</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E26" s="3">
         <v>2.4216220000000002</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F26" s="3">
         <v>2.4210050000000001</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G26" s="3">
+        <v>2</v>
+      </c>
+      <c r="H26" s="3">
+        <v>2</v>
+      </c>
+      <c r="I26" s="3">
         <v>10</v>
       </c>
-      <c r="H25" s="3">
-        <v>20</v>
-      </c>
-      <c r="I25" s="3">
-        <v>0</v>
-      </c>
-      <c r="J25" s="3">
-        <v>0</v>
-      </c>
-      <c r="K25" s="3">
+      <c r="J26" s="3">
+        <v>20</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>52</v>
       </c>
-      <c r="L25" s="3">
+      <c r="N26" s="3">
         <v>127</v>
       </c>
-      <c r="M25" s="3">
-        <v>0.48394100000000001</v>
-      </c>
-      <c r="N25" s="3">
-        <v>3289.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+      <c r="O26" s="3">
+        <v>0.969167</v>
+      </c>
+      <c r="P26" s="3">
+        <v>3314.5</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>-3.7859999999999999E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
         <v>1</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C27" s="4">
         <v>2.6071430000000002</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D27" s="4">
         <v>2.6666669999999999</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E27" s="4">
         <v>2.26979</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F27" s="4">
         <v>2.2156470000000001</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G27" s="4">
+        <v>2</v>
+      </c>
+      <c r="H27" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I27" s="4">
         <v>10</v>
       </c>
-      <c r="H26" s="4">
+      <c r="J27" s="4">
         <v>10</v>
       </c>
-      <c r="I26" s="4">
-        <v>0</v>
-      </c>
-      <c r="J26" s="4">
-        <v>0</v>
-      </c>
-      <c r="K26" s="4">
+      <c r="K27" s="4">
+        <v>0</v>
+      </c>
+      <c r="L27" s="4">
+        <v>0</v>
+      </c>
+      <c r="M27" s="4">
         <v>56</v>
       </c>
-      <c r="L26" s="4">
+      <c r="N27" s="4">
         <v>144</v>
       </c>
-      <c r="M26" s="4">
-        <v>0.32936199999999999</v>
-      </c>
-      <c r="N26" s="4">
+      <c r="O27" s="4">
+        <v>0.65972299999999995</v>
+      </c>
+      <c r="P27" s="4">
         <v>3872</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
-        <v>2</v>
-      </c>
-      <c r="B27" s="3" t="s">
+      <c r="Q27" s="4">
+        <v>3.9683000000000003E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>2</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C28" s="3">
         <v>3.1724139999999998</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D28" s="3">
         <v>2.9133330000000002</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E28" s="3">
         <v>3.2667269999999999</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F28" s="3">
         <v>2.4900790000000002</v>
       </c>
-      <c r="G27" s="3">
-        <v>20</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="G28" s="3">
+        <v>3</v>
+      </c>
+      <c r="H28" s="3">
+        <v>2</v>
+      </c>
+      <c r="I28" s="3">
+        <v>20</v>
+      </c>
+      <c r="J28" s="3">
         <v>12</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
         <v>58</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N28" s="3">
         <v>150</v>
       </c>
-      <c r="M27" s="3">
-        <v>0.38075399999999998</v>
-      </c>
-      <c r="N27" s="3">
-        <v>4233.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>3</v>
-      </c>
-      <c r="B28" s="4" t="s">
+      <c r="O28" s="3">
+        <v>0.76250099999999998</v>
+      </c>
+      <c r="P28" s="3">
+        <v>4466.5</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>-2.6782E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>3</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C29" s="4">
         <v>3.0612240000000002</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D29" s="4">
         <v>3.145985</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E29" s="4">
         <v>3.3317169999999998</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F29" s="4">
         <v>2.7641089999999999</v>
       </c>
-      <c r="G28" s="4">
-        <v>20</v>
-      </c>
-      <c r="H28" s="4">
+      <c r="G29" s="4">
+        <v>3</v>
+      </c>
+      <c r="H29" s="4">
+        <v>3</v>
+      </c>
+      <c r="I29" s="4">
+        <v>20</v>
+      </c>
+      <c r="J29" s="4">
         <v>12</v>
       </c>
-      <c r="I28" s="4">
-        <v>0</v>
-      </c>
-      <c r="J28" s="4">
-        <v>0</v>
-      </c>
-      <c r="K28" s="4">
+      <c r="K29" s="4">
+        <v>0</v>
+      </c>
+      <c r="L29" s="4">
+        <v>0</v>
+      </c>
+      <c r="M29" s="4">
         <v>49</v>
       </c>
-      <c r="L28" s="4">
+      <c r="N29" s="4">
         <v>137</v>
       </c>
-      <c r="M28" s="4">
-        <v>0.33291599999999999</v>
-      </c>
-      <c r="N28" s="4">
+      <c r="O29" s="4">
+        <v>0.66696999999999995</v>
+      </c>
+      <c r="P29" s="4">
         <v>3218.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
+      <c r="Q29" s="4">
+        <v>4.1113999999999998E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
         <v>4</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C30" s="3">
         <v>3.0222220000000002</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D30" s="3">
         <v>3.1344539999999999</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E30" s="3">
         <v>3.4011290000000001</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F30" s="3">
         <v>2.8786900000000002</v>
       </c>
-      <c r="G29" s="3">
-        <v>20</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="G30" s="3">
+        <v>3</v>
+      </c>
+      <c r="H30" s="3">
+        <v>2</v>
+      </c>
+      <c r="I30" s="3">
+        <v>20</v>
+      </c>
+      <c r="J30" s="3">
         <v>15</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
         <v>45</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N30" s="3">
         <v>119</v>
       </c>
-      <c r="M29" s="3">
-        <v>0.31967499999999999</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="O30" s="3">
+        <v>0.64068499999999995</v>
+      </c>
+      <c r="P30" s="3">
         <v>2552</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+      <c r="Q30" s="3">
+        <v>4.6871999999999997E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
         <v>5</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C31" s="4">
         <v>3.7872340000000002</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D31" s="4">
         <v>3.406504</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E31" s="4">
         <v>4.2576590000000003</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F31" s="4">
         <v>3.1174740000000001</v>
       </c>
-      <c r="G30" s="4">
-        <v>20</v>
-      </c>
-      <c r="H30" s="4">
-        <v>20</v>
-      </c>
-      <c r="I30" s="4">
-        <v>0</v>
-      </c>
-      <c r="J30" s="4">
-        <v>0</v>
-      </c>
-      <c r="K30" s="4">
+      <c r="G31" s="4">
+        <v>3</v>
+      </c>
+      <c r="H31" s="4">
+        <v>3</v>
+      </c>
+      <c r="I31" s="4">
+        <v>20</v>
+      </c>
+      <c r="J31" s="4">
+        <v>20</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0</v>
+      </c>
+      <c r="L31" s="4">
+        <v>0</v>
+      </c>
+      <c r="M31" s="4">
         <v>47</v>
       </c>
-      <c r="L30" s="4">
+      <c r="N31" s="4">
         <v>123</v>
       </c>
-      <c r="M30" s="4">
-        <v>0.47047</v>
-      </c>
-      <c r="N30" s="4">
+      <c r="O31" s="4">
+        <v>0.94234399999999996</v>
+      </c>
+      <c r="P31" s="4">
         <v>2869.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
+      <c r="Q31" s="4">
+        <v>7.2649999999999998E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
         <v>6</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C32" s="3">
         <v>3.5333329999999998</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D32" s="3">
         <v>3.433824</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E32" s="3">
         <v>3.876503</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F32" s="3">
         <v>3.208097</v>
       </c>
-      <c r="G31" s="3">
-        <v>20</v>
-      </c>
-      <c r="H31" s="3">
-        <v>20</v>
-      </c>
-      <c r="I31" s="3">
-        <v>0</v>
-      </c>
-      <c r="J31" s="3">
-        <v>0</v>
-      </c>
-      <c r="K31" s="3">
+      <c r="G32" s="3">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3">
+        <v>20</v>
+      </c>
+      <c r="J32" s="3">
+        <v>20</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>45</v>
       </c>
-      <c r="L31" s="3">
+      <c r="N32" s="3">
         <v>136</v>
       </c>
-      <c r="M31" s="3">
-        <v>0.39196799999999998</v>
-      </c>
-      <c r="N31" s="3">
+      <c r="O32" s="3">
+        <v>0.78521399999999997</v>
+      </c>
+      <c r="P32" s="3">
         <v>2977.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+      <c r="Q32" s="3">
+        <v>2.6960999999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
         <v>7</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C33" s="4">
         <v>3.0416669999999999</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D33" s="4">
         <v>3.047059</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E33" s="4">
         <v>2.5104850000000001</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F33" s="4">
         <v>2.8822359999999998</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G33" s="4">
+        <v>3</v>
+      </c>
+      <c r="H33" s="4">
+        <v>2</v>
+      </c>
+      <c r="I33" s="4">
         <v>10</v>
       </c>
-      <c r="H32" s="4">
+      <c r="J33" s="4">
         <v>15</v>
       </c>
-      <c r="I32" s="4">
-        <v>0</v>
-      </c>
-      <c r="J32" s="4">
-        <v>0</v>
-      </c>
-      <c r="K32" s="4">
+      <c r="K33" s="4">
+        <v>0</v>
+      </c>
+      <c r="L33" s="4">
+        <v>0</v>
+      </c>
+      <c r="M33" s="4">
         <v>24</v>
       </c>
-      <c r="L32" s="4">
+      <c r="N33" s="4">
         <v>85</v>
       </c>
-      <c r="M32" s="4">
-        <v>0.38909100000000002</v>
-      </c>
-      <c r="N32" s="4">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
+      <c r="O33" s="4">
+        <v>0.78102499999999997</v>
+      </c>
+      <c r="P33" s="4">
+        <v>1058</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>-3.7255000000000003E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
         <v>8</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C34" s="3">
         <v>3.0769229999999999</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D34" s="3">
         <v>3.3052630000000001</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E34" s="3">
         <v>2.3819840000000001</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F34" s="3">
         <v>3.5820880000000002</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G34" s="3">
+        <v>3</v>
+      </c>
+      <c r="H34" s="3">
+        <v>2</v>
+      </c>
+      <c r="I34" s="3">
         <v>10</v>
       </c>
-      <c r="H33" s="3">
-        <v>20</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="J34" s="3">
+        <v>20</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
         <v>26</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N34" s="3">
         <v>95</v>
       </c>
-      <c r="M33" s="3">
-        <v>0.31139600000000001</v>
-      </c>
-      <c r="N33" s="3">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+      <c r="O34" s="3">
+        <v>0.62505200000000005</v>
+      </c>
+      <c r="P34" s="3">
+        <v>1312</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>-6.2348000000000001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
         <v>9</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C35" s="4">
         <v>4.0810810000000002</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D35" s="4">
         <v>3.7264149999999998</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E35" s="4">
         <v>3.7295989999999999</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F35" s="4">
         <v>3.5977060000000001</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G35" s="4">
+        <v>3</v>
+      </c>
+      <c r="H35" s="4">
+        <v>3</v>
+      </c>
+      <c r="I35" s="4">
         <v>16</v>
       </c>
-      <c r="H34" s="4">
-        <v>20</v>
-      </c>
-      <c r="I34" s="4">
-        <v>0</v>
-      </c>
-      <c r="J34" s="4">
-        <v>0</v>
-      </c>
-      <c r="K34" s="4">
+      <c r="J35" s="4">
+        <v>20</v>
+      </c>
+      <c r="K35" s="4">
+        <v>0</v>
+      </c>
+      <c r="L35" s="4">
+        <v>0</v>
+      </c>
+      <c r="M35" s="4">
         <v>37</v>
       </c>
-      <c r="L34" s="4">
+      <c r="N35" s="4">
         <v>106</v>
       </c>
-      <c r="M34" s="4">
-        <v>0.32340200000000002</v>
-      </c>
-      <c r="N34" s="4">
-        <v>1862.5</v>
+      <c r="O35" s="4">
+        <v>0.64847600000000005</v>
+      </c>
+      <c r="P35" s="4">
+        <v>2059.5</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>-5.0229000000000003E-2</v>
       </c>
     </row>
   </sheetData>

--- a/RQ3/RQ3.xlsx
+++ b/RQ3/RQ3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keshab\Documents\transfer-students-research\RQ3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABB7EF8-9CA0-41AB-8CF3-3BB97D72C9A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5C648A-78A6-4880-98F0-97CF32AD3FEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{D0AF20AA-7900-4A8E-A0EC-0DA9DF85DDAD}"/>
   </bookViews>
@@ -529,7 +529,7 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection sqref="A1:Q35"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1606,7 +1606,7 @@
         <v>0.969167</v>
       </c>
       <c r="P26" s="3">
-        <v>3314.5</v>
+        <v>3289.5</v>
       </c>
       <c r="Q26" s="3">
         <v>-3.7859999999999999E-3</v>
@@ -1712,7 +1712,7 @@
         <v>0.76250099999999998</v>
       </c>
       <c r="P28" s="3">
-        <v>4466.5</v>
+        <v>4233.5</v>
       </c>
       <c r="Q28" s="3">
         <v>-2.6782E-2</v>
@@ -1977,7 +1977,7 @@
         <v>0.78102499999999997</v>
       </c>
       <c r="P33" s="4">
-        <v>1058</v>
+        <v>982</v>
       </c>
       <c r="Q33" s="4">
         <v>-3.7255000000000003E-2</v>
@@ -2030,7 +2030,7 @@
         <v>0.62505200000000005</v>
       </c>
       <c r="P34" s="3">
-        <v>1312</v>
+        <v>1158</v>
       </c>
       <c r="Q34" s="3">
         <v>-6.2348000000000001E-2</v>
@@ -2083,7 +2083,7 @@
         <v>0.64847600000000005</v>
       </c>
       <c r="P35" s="4">
-        <v>2059.5</v>
+        <v>1862.5</v>
       </c>
       <c r="Q35" s="4">
         <v>-5.0229000000000003E-2</v>
